--- a/Listas/Lista10-resolucao.xlsx
+++ b/Listas/Lista10-resolucao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\experimentacao-agricola-unesp-fcav\Listas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\experimentacao-agricola-unesp-fcav\Listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C35D9CF-410F-44D6-9E1F-FD299785AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B326BD1E-0277-4914-AD17-68A535C8EFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{515D6C85-36C7-40AE-A3B3-0E51A53945E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{515D6C85-36C7-40AE-A3B3-0E51A53945E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>Tratamento</t>
   </si>
@@ -294,6 +294,15 @@
   </si>
   <si>
     <t>Trat.(Aj)</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>qmr</t>
   </si>
 </sst>
 </file>
@@ -428,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -438,24 +447,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -468,6 +462,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,36 +788,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AA5050-5291-4B26-9FFA-18A15DF21D7F}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD69"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
       <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
@@ -834,7 +841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -847,7 +854,7 @@
       <c r="D3">
         <v>141.9</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>63</v>
       </c>
       <c r="F3">
@@ -856,12 +863,12 @@
       <c r="G3">
         <v>146.5</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="11">
         <f>SUM(B3:G3)</f>
         <v>703.39999999999986</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -883,12 +890,12 @@
       <c r="G4">
         <v>156.19999999999999</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="11">
         <f>SUM(B4:G4)</f>
         <v>889.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -910,12 +917,12 @@
       <c r="G5">
         <v>154.9</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="11">
         <f>SUM(B5:G5)</f>
         <v>865.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -937,12 +944,12 @@
       <c r="G6">
         <v>141</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="11">
         <f>SUM(B6:G6)</f>
         <v>739.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -964,84 +971,83 @@
       <c r="G7">
         <v>157.1</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="11">
         <f>SUM(B7:G7)</f>
         <v>802</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="17">
-        <f>SUM(B3:B7)</f>
+      <c r="B8" s="10">
+        <f t="shared" ref="B8:H8" si="0">SUM(B3:B7)</f>
         <v>634.19999999999993</v>
       </c>
-      <c r="C8" s="17">
-        <f>SUM(C3:C7)</f>
+      <c r="C8" s="10">
+        <f t="shared" si="0"/>
         <v>687.8</v>
       </c>
-      <c r="D8" s="17">
-        <f>SUM(D3:D7)</f>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
         <v>683.40000000000009</v>
       </c>
-      <c r="E8" s="17">
-        <f>SUM(E3:E7)</f>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
         <v>508.5</v>
       </c>
-      <c r="F8" s="17">
-        <f>SUM(F3:F7)</f>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
         <v>729.9</v>
       </c>
-      <c r="G8" s="17">
-        <f>SUM(G3:G7)</f>
+      <c r="G8" s="10">
+        <f t="shared" si="0"/>
         <v>755.7</v>
       </c>
-      <c r="H8" s="17">
-        <f>SUM(H3:H7)</f>
+      <c r="H8" s="10">
+        <f t="shared" si="0"/>
         <v>3999.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>65</v>
       </c>
       <c r="B12">
@@ -1050,8 +1056,8 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>66</v>
       </c>
       <c r="B13" s="2">
@@ -1059,8 +1065,8 @@
         <v>508.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>67</v>
       </c>
       <c r="B14">
@@ -1068,8 +1074,8 @@
         <v>3999.4999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>68</v>
       </c>
       <c r="B15">
@@ -1077,28 +1083,41 @@
         <v>128.42499999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="J18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
       <c r="B19" s="8" t="s">
         <v>8</v>
       </c>
@@ -1120,8 +1139,24 @@
       <c r="H19" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19">
+        <v>30.709</v>
+      </c>
+      <c r="N19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19">
+        <v>148.20000000000002</v>
+      </c>
+      <c r="Q19">
+        <f>O19/O20</f>
+        <v>1.0278580510923594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1134,7 +1169,7 @@
       <c r="D20">
         <v>141.9</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="9">
         <f>B15</f>
         <v>128.42499999999998</v>
       </c>
@@ -1144,12 +1179,30 @@
       <c r="G20">
         <v>146.5</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="11">
         <f>SUM(B20:G20)</f>
         <v>831.82499999999982</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f>H20/6</f>
+        <v>138.63749999999996</v>
+      </c>
+      <c r="K20">
+        <f>SQRT((1/K18+K17/(K18*(K18-1)*(K17-1)))*K19)</f>
+        <v>2.5293691571878814</v>
+      </c>
+      <c r="N20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20">
+        <v>144.18333333333334</v>
+      </c>
+      <c r="Q20">
+        <f>O19-O21</f>
+        <v>9.5625000000000568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1171,12 +1224,38 @@
       <c r="G21">
         <v>156.19999999999999</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="11">
         <f>SUM(B21:G21)</f>
         <v>889.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" ref="I21:I25" si="1">H21/6</f>
+        <v>148.20000000000002</v>
+      </c>
+      <c r="J21">
+        <f>SQRT($D$34/6)</f>
+        <v>2.2623635301807399</v>
+      </c>
+      <c r="K21">
+        <f>K16*SQRT(K19/K18)</f>
+        <v>9.6149303386278699</v>
+      </c>
+      <c r="L21">
+        <f>K16*SQRT(1/2*(2/K18+K17/(K18*(K18-1)*(K17-1)))*K19)</f>
+        <v>10.198173664620054</v>
+      </c>
+      <c r="N21" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21">
+        <v>138.63749999999996</v>
+      </c>
+      <c r="Q21">
+        <f>O19-O22</f>
+        <v>14.53333333333336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1198,12 +1277,30 @@
       <c r="G22">
         <v>154.9</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="11">
         <f>SUM(B22:G22)</f>
         <v>865.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>144.18333333333334</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:J24" si="2">SQRT($D$34/6)</f>
+        <v>2.2623635301807399</v>
+      </c>
+      <c r="N22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22">
+        <v>133.66666666666666</v>
+      </c>
+      <c r="Q22">
+        <f>O21-O22</f>
+        <v>4.970833333333303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1225,12 +1322,30 @@
       <c r="G23">
         <v>141</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="11">
         <f>SUM(B23:G23)</f>
         <v>739.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>123.3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>2.2623635301807399</v>
+      </c>
+      <c r="N23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23">
+        <v>123.3</v>
+      </c>
+      <c r="Q23">
+        <f>O22-O23</f>
+        <v>10.36666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -1252,56 +1367,66 @@
       <c r="G24">
         <v>157.1</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="11">
         <f>SUM(B24:G24)</f>
         <v>802</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>133.66666666666666</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>2.2623635301807399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="17">
-        <f>SUM(B20:B24)</f>
+      <c r="B25" s="10">
+        <f t="shared" ref="B25:H25" si="3">SUM(B20:B24)</f>
         <v>634.19999999999993</v>
       </c>
-      <c r="C25" s="17">
-        <f>SUM(C20:C24)</f>
+      <c r="C25" s="10">
+        <f t="shared" si="3"/>
         <v>687.8</v>
       </c>
-      <c r="D25" s="17">
-        <f>SUM(D20:D24)</f>
+      <c r="D25" s="10">
+        <f t="shared" si="3"/>
         <v>683.40000000000009</v>
       </c>
-      <c r="E25" s="17">
-        <f>SUM(E20:E24)</f>
+      <c r="E25" s="10">
+        <f t="shared" si="3"/>
         <v>636.92499999999995</v>
       </c>
-      <c r="F25" s="17">
-        <f>SUM(F20:F24)</f>
+      <c r="F25" s="10">
+        <f t="shared" si="3"/>
         <v>729.9</v>
       </c>
-      <c r="G25" s="17">
-        <f>SUM(G20:G24)</f>
+      <c r="G25" s="10">
+        <f t="shared" si="3"/>
         <v>755.7</v>
       </c>
-      <c r="H25" s="17">
-        <f>SUM(H20:H24)</f>
+      <c r="H25" s="10">
+        <f t="shared" si="3"/>
         <v>4127.9250000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="I25">
+        <f>H25/6/5</f>
+        <v>137.59750000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="11">
         <f>H25</f>
         <v>4127.9250000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="16"/>
+    <row r="27" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>70</v>
       </c>
@@ -1309,6 +1434,10 @@
         <f>(B10-1)/B10*(E20-E8/(5-1))^2</f>
         <v>1.3519999999999648</v>
       </c>
+      <c r="D27">
+        <f>4/5*(128.425-508.5/4)^2</f>
+        <v>1.3520000000000236</v>
+      </c>
       <c r="G27" t="s">
         <v>25</v>
       </c>
@@ -1316,9 +1445,12 @@
         <f>H26^2/6/5</f>
         <v>567992.16018750006</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="16"/>
+      <c r="J27">
+        <f>2.89*4.57</f>
+        <v>13.207300000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>69</v>
       </c>
@@ -1326,6 +1458,10 @@
         <f>(B11-1)/B11*(E20-H3/(6-1))^2</f>
         <v>125.15418749999991</v>
       </c>
+      <c r="D28">
+        <f>5/6*(128.425-703.4/5)^2</f>
+        <v>125.15418749999991</v>
+      </c>
       <c r="G28" t="s">
         <v>26</v>
       </c>
@@ -1334,11 +1470,31 @@
         <v>137.59750000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <f>SUMSQ(B20:G24)</f>
+        <v>573208.71062500018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <f>E29-H27</f>
+        <v>5216.5504375001183</v>
+      </c>
+      <c r="F30">
+        <f>SUMSQ(H20:H24)</f>
+        <v>3421515.5206249999</v>
+      </c>
+      <c r="G30">
+        <f>F30/6-H27</f>
+        <v>2260.4265833332902</v>
+      </c>
+      <c r="I30">
+        <f>G31-D28</f>
+        <v>2247.4847499999564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -1354,8 +1510,20 @@
       <c r="E31" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f>SUMSQ(B25:G25)</f>
+        <v>2851823.995625</v>
+      </c>
+      <c r="G31">
+        <f>F31/5-H27</f>
+        <v>2372.6389374999562</v>
+      </c>
+      <c r="I31">
+        <f>G30-D27</f>
+        <v>2259.0745833332903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1373,13 +1541,17 @@
       </c>
       <c r="E32">
         <f>D32/D34</f>
-        <v>12.828020338775358</v>
+        <v>18.390542693256176</v>
       </c>
       <c r="F32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f>E30-G31-G30</f>
+        <v>583.48491666687187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1397,13 +1569,13 @@
       </c>
       <c r="E33">
         <f>D33/D34</f>
-        <v>10.209766528928583</v>
+        <v>14.636954282874488</v>
       </c>
       <c r="F33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1412,15 +1584,15 @@
         <v>19</v>
       </c>
       <c r="C34">
-        <f>C35-C32-C33+C28+C27</f>
-        <v>836.49729166687143</v>
+        <f>C35-(C32+C27)-(C33+C28)</f>
+        <v>583.48491666687187</v>
       </c>
       <c r="D34">
         <f>C34/B34</f>
-        <v>44.026173245624811</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30.709732456151151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
@@ -1435,13 +1607,13 @@
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="1">
-        <f>100*SQRT(D34)/(H8/COUNT(B3:E7))</f>
-        <v>3.152124546331367</v>
+        <f>100*SQRT(D34)/137.5975</f>
+        <v>4.0274251070146363</v>
       </c>
       <c r="G36" t="s">
         <v>0</v>
@@ -1450,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1464,7 +1636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -1486,7 +1658,7 @@
         <v>2.7400575416853443</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G39" s="6">
         <v>0.01</v>
       </c>
@@ -1502,289 +1674,289 @@
         <v>4.1707669806148067</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+    <row r="40" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="15">
         <f>H3/4</f>
         <v>175.84999999999997</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="16">
         <f>SQRT($D$34/4)</f>
-        <v>3.3176110850137639</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+        <v>2.7708181308122315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="17">
         <f>H4/4</f>
         <v>222.3</v>
       </c>
-      <c r="C42" s="25">
-        <f t="shared" ref="C42:C46" si="0">SQRT($D$34/4)</f>
-        <v>3.3176110850137639</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="C42" s="18">
+        <f t="shared" ref="C42:C46" si="4">SQRT($D$34/4)</f>
+        <v>2.7708181308122315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="17">
         <f>H5/4</f>
         <v>216.27500000000001</v>
       </c>
-      <c r="C43" s="25">
-        <f t="shared" si="0"/>
-        <v>3.3176110850137639</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="C43" s="18">
+        <f t="shared" si="4"/>
+        <v>2.7708181308122315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="17">
         <f>H6/4</f>
         <v>184.95</v>
       </c>
-      <c r="C44" s="25">
-        <f t="shared" si="0"/>
-        <v>3.3176110850137639</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="C44" s="18">
+        <f t="shared" si="4"/>
+        <v>2.7708181308122315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="17">
         <f>H7/4</f>
         <v>200.5</v>
       </c>
-      <c r="C45" s="25">
-        <f t="shared" si="0"/>
-        <v>3.3176110850137639</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="C45" s="18">
+        <f t="shared" si="4"/>
+        <v>2.7708181308122315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="27" t="e">
+      <c r="B46" s="20" t="e">
         <f>#REF!/4</f>
         <v>#REF!</v>
       </c>
-      <c r="C46" s="28">
-        <f t="shared" si="0"/>
-        <v>3.3176110850137639</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="C46" s="21">
+        <f t="shared" si="4"/>
+        <v>2.7708181308122315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+    <row r="49" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="13">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+    <row r="50" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="18">
         <f>C41</f>
-        <v>3.3176110850137639</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+        <v>2.7708181308122315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="18">
         <f>B50*B49</f>
-        <v>15.261010991063312</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+        <v>12.745763401736264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
+    <row r="54" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="15">
         <v>12.899999999999999</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+    <row r="55" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="24">
+      <c r="B55" s="17">
         <v>7.9750000000000005</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+    <row r="56" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56" s="17">
         <v>6.8</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+    <row r="57" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="17">
         <v>3.1</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+    <row r="58" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="17">
         <v>2.7749999999999999</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+    <row r="59" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="27">
+      <c r="B59" s="20">
         <v>1.9500000000000002</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
+    <row r="60" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+    <row r="62" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B62" s="17">
         <f>B54-B55</f>
         <v>4.924999999999998</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
+    <row r="63" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="24">
+      <c r="B63" s="17">
         <f>B55-B56</f>
         <v>1.1750000000000007</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+    <row r="64" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="24">
+      <c r="B64" s="17">
         <f>B55-B57</f>
         <v>4.875</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+    <row r="65" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="24">
+      <c r="B65" s="17">
         <f>B56-B57</f>
         <v>3.6999999999999997</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
+    <row r="66" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="24">
+      <c r="B66" s="17">
         <f>B57-B58</f>
         <v>0.32500000000000018</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+    <row r="67" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="24">
+      <c r="B67" s="17">
         <f>B57-B59</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+    <row r="68" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="13" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A54:B59">
-    <sortCondition descending="1" ref="B54:B59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N19:O23">
+    <sortCondition descending="1" ref="O19:O23"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
